--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\Projects\carga-horas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C92AAA-DF4B-490A-A974-A94CBDF8E0D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AE65F-3762-4437-BE7F-68FB43A817F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{98A359E9-EFFA-4F6E-8F8A-DEA77192B713}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="NO EDITAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>LUNES</t>
   </si>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -243,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0769DBA9-E914-41FD-BB90-E8627297F027}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1101,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D71"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,8 +1135,9 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="2" t="str">
+        <f>Sheet1!C2</f>
+        <v>MLKRNS-1090: D:0.50||C:null|Daily Equipo - Revisión/Priorización de tickets y tareas</v>
       </c>
       <c r="D2" s="16">
         <f>Sheet1!$D$2</f>
@@ -1153,8 +1153,9 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="str">
+        <f>Sheet1!C3</f>
+        <v>ATWGBTRN-152: D:2||C:null|Excel based Operational Reporting</v>
       </c>
       <c r="D3" s="16">
         <f>Sheet1!$D$2</f>
@@ -1170,8 +1171,9 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="2" t="str">
+        <f>Sheet1!C4</f>
+        <v>ATWGBTRN-152: D:3||C:null|UKG Dimensions: Data Hub</v>
       </c>
       <c r="D4" s="16">
         <f>Sheet1!$D$2</f>
@@ -1187,8 +1189,9 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="C5" s="2" t="str">
+        <f>Sheet1!C5</f>
+        <v>NJ: D:2.5|GT reuniones, shadowing y varios</v>
       </c>
       <c r="D5" s="16">
         <f>Sheet1!$D$2</f>
@@ -1204,7 +1207,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <f>Sheet1!C6</f>
+        <v>0</v>
+      </c>
       <c r="D6" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1219,7 +1225,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <f>Sheet1!C7</f>
+        <v>0</v>
+      </c>
       <c r="D7" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1234,7 +1243,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <f>Sheet1!C8</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1249,7 +1261,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <f>Sheet1!C9</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1264,7 +1279,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <f>Sheet1!C10</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1279,7 +1297,10 @@
         <f>Sheet1!B$2</f>
         <v>44466</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <f>Sheet1!C11</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="16">
         <f>Sheet1!$D$2</f>
         <v>8</v>
@@ -1294,8 +1315,9 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
+      <c r="C12" s="2" t="str">
+        <f>Sheet1!C12</f>
+        <v>MLKRNS-1090: D:0.50||C:null|Daily Equipo - Revisión/Priorización de tickets y tareas</v>
       </c>
       <c r="D12" s="16">
         <f>Sheet1!$D$12</f>
@@ -1311,8 +1333,9 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+      <c r="C13" s="2" t="str">
+        <f>Sheet1!C13</f>
+        <v>ATWGBTRN-152: D:3||C:null|UKG Dimensions: Data Hub</v>
       </c>
       <c r="D13" s="16">
         <f>Sheet1!$D$12</f>
@@ -1328,8 +1351,9 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
+      <c r="C14" s="2" t="str">
+        <f>Sheet1!C14</f>
+        <v>NJ: D:1.5|GT reuniones, shadowing y varios</v>
       </c>
       <c r="D14" s="16">
         <f>Sheet1!$D$12</f>
@@ -1345,7 +1369,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <f>Sheet1!C15</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1360,7 +1387,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f>Sheet1!C16</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1375,7 +1405,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <f>Sheet1!C17</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1390,7 +1423,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <f>Sheet1!C18</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1405,7 +1441,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <f>Sheet1!C19</f>
+        <v>0</v>
+      </c>
       <c r="D19" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1420,7 +1459,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <f>Sheet1!C20</f>
+        <v>0</v>
+      </c>
       <c r="D20" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1435,7 +1477,10 @@
         <f>Sheet1!B$12</f>
         <v>44467</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <f>Sheet1!C21</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="16">
         <f>Sheet1!$D$12</f>
         <v>0</v>
@@ -1450,8 +1495,9 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
+      <c r="C22" s="2" t="str">
+        <f>Sheet1!C22</f>
+        <v>MLKRNS-1173: D:1||C:null|Estructura SMX6 - SDFPS-18957</v>
       </c>
       <c r="D22" s="16">
         <f>Sheet1!$D$22</f>
@@ -1467,8 +1513,9 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
+      <c r="C23" s="2" t="str">
+        <f>Sheet1!C23</f>
+        <v>MLKRNS-1047: D: 0.5||C:null|Soporte en la integracion del proveedor Infocontrol - SDFPS-11578 (Correccion de errores al correr la interfaz)</v>
       </c>
       <c r="D23" s="16">
         <f>Sheet1!$D$22</f>
@@ -1484,8 +1531,9 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
+      <c r="C24" s="2" t="str">
+        <f>Sheet1!C24</f>
+        <v>ATWGBTRN-152: D:3||C:null|UKG Dimensions: Data Hub</v>
       </c>
       <c r="D24" s="16">
         <f>Sheet1!$D$22</f>
@@ -1501,8 +1549,9 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
+      <c r="C25" s="2" t="str">
+        <f>Sheet1!C25</f>
+        <v>NJ: D:0.5|GT reuniones, shadowing y varios</v>
       </c>
       <c r="D25" s="16">
         <f>Sheet1!$D$22</f>
@@ -1518,7 +1567,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <f>Sheet1!C26</f>
+        <v>0</v>
+      </c>
       <c r="D26" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1533,7 +1585,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <f>Sheet1!C27</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1548,7 +1603,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f>Sheet1!C28</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1563,7 +1621,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <f>Sheet1!C29</f>
+        <v>0</v>
+      </c>
       <c r="D29" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1578,7 +1639,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <f>Sheet1!C30</f>
+        <v>0</v>
+      </c>
       <c r="D30" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1593,7 +1657,10 @@
         <f>Sheet1!B$22</f>
         <v>44468</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <f>Sheet1!C31</f>
+        <v>0</v>
+      </c>
       <c r="D31" s="16">
         <f>Sheet1!$D$22</f>
         <v>0</v>
@@ -1608,8 +1675,9 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
+      <c r="C32" s="2" t="str">
+        <f>Sheet1!C32</f>
+        <v>ATWGBTRN-152: D:3||C:null|UKG Dimensions: Data Hub</v>
       </c>
       <c r="D32" s="16">
         <f>Sheet1!$D$32</f>
@@ -1625,8 +1693,9 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
+      <c r="C33" s="2" t="str">
+        <f>Sheet1!C33</f>
+        <v>NJ: D:4|GT reuniones, shadowing y varios</v>
       </c>
       <c r="D33" s="16">
         <f>Sheet1!$D$32</f>
@@ -1642,7 +1711,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <f>Sheet1!C34</f>
+        <v>0</v>
+      </c>
       <c r="D34" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1657,7 +1729,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <f>Sheet1!C35</f>
+        <v>0</v>
+      </c>
       <c r="D35" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1672,7 +1747,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <f>Sheet1!C36</f>
+        <v>0</v>
+      </c>
       <c r="D36" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1687,7 +1765,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <f>Sheet1!C37</f>
+        <v>0</v>
+      </c>
       <c r="D37" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1702,7 +1783,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <f>Sheet1!C38</f>
+        <v>0</v>
+      </c>
       <c r="D38" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1717,7 +1801,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <f>Sheet1!C39</f>
+        <v>0</v>
+      </c>
       <c r="D39" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1732,7 +1819,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <f>Sheet1!C40</f>
+        <v>0</v>
+      </c>
       <c r="D40" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1747,7 +1837,10 @@
         <f>Sheet1!B$32</f>
         <v>44469</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <f>Sheet1!C41</f>
+        <v>0</v>
+      </c>
       <c r="D41" s="16">
         <f>Sheet1!$D$32</f>
         <v>0</v>
@@ -1762,8 +1855,9 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>12</v>
+      <c r="C42" s="2" t="str">
+        <f>Sheet1!C42</f>
+        <v>ATWGBTRN-152: D:1||C:null|WFD Timekeeping: Designing the Solution to Perform Historical Corrections</v>
       </c>
       <c r="D42" s="16">
         <f>Sheet1!$D$42</f>
@@ -1779,8 +1873,9 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>19</v>
+      <c r="C43" s="2" t="str">
+        <f>Sheet1!C43</f>
+        <v>NJ: D:1.5|Language</v>
       </c>
       <c r="D43" s="16">
         <f>Sheet1!$D$42</f>
@@ -1796,8 +1891,9 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>15</v>
+      <c r="C44" s="2" t="str">
+        <f>Sheet1!C44</f>
+        <v>NJ: D:2.5|GT reuniones, shadowing y varios</v>
       </c>
       <c r="D44" s="16">
         <f>Sheet1!$D$42</f>
@@ -1813,7 +1909,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <f>Sheet1!C45</f>
+        <v>0</v>
+      </c>
       <c r="D45" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1828,7 +1927,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2">
+        <f>Sheet1!C46</f>
+        <v>0</v>
+      </c>
       <c r="D46" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1843,7 +1945,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2">
+        <f>Sheet1!C47</f>
+        <v>0</v>
+      </c>
       <c r="D47" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1858,7 +1963,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2">
+        <f>Sheet1!C48</f>
+        <v>0</v>
+      </c>
       <c r="D48" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1873,7 +1981,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <f>Sheet1!C49</f>
+        <v>0</v>
+      </c>
       <c r="D49" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1888,7 +1999,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <f>Sheet1!C50</f>
+        <v>0</v>
+      </c>
       <c r="D50" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1903,7 +2017,10 @@
         <f>Sheet1!B$42</f>
         <v>44470</v>
       </c>
-      <c r="C51" s="19"/>
+      <c r="C51" s="2">
+        <f>Sheet1!C51</f>
+        <v>0</v>
+      </c>
       <c r="D51" s="16">
         <f>Sheet1!$D$42</f>
         <v>0</v>
@@ -1918,7 +2035,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <f>Sheet1!C52</f>
+        <v>0</v>
+      </c>
       <c r="D52" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -1933,7 +2053,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <f>Sheet1!C53</f>
+        <v>0</v>
+      </c>
       <c r="D53" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -1948,7 +2071,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2">
+        <f>Sheet1!C54</f>
+        <v>0</v>
+      </c>
       <c r="D54" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -1963,7 +2089,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2">
+        <f>Sheet1!C55</f>
+        <v>0</v>
+      </c>
       <c r="D55" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -1978,7 +2107,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <f>Sheet1!C56</f>
+        <v>0</v>
+      </c>
       <c r="D56" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -1993,7 +2125,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2">
+        <f>Sheet1!C57</f>
+        <v>0</v>
+      </c>
       <c r="D57" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -2008,7 +2143,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2">
+        <f>Sheet1!C58</f>
+        <v>0</v>
+      </c>
       <c r="D58" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -2023,7 +2161,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2">
+        <f>Sheet1!C59</f>
+        <v>0</v>
+      </c>
       <c r="D59" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -2038,7 +2179,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2">
+        <f>Sheet1!C60</f>
+        <v>0</v>
+      </c>
       <c r="D60" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -2053,7 +2197,10 @@
         <f>Sheet1!B$52</f>
         <v>44471</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2">
+        <f>Sheet1!C61</f>
+        <v>0</v>
+      </c>
       <c r="D61" s="2">
         <f>Sheet1!$D$52</f>
         <v>0</v>
@@ -2068,7 +2215,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2">
+        <f>Sheet1!C62</f>
+        <v>0</v>
+      </c>
       <c r="D62" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2083,7 +2233,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2">
+        <f>Sheet1!C63</f>
+        <v>0</v>
+      </c>
       <c r="D63" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2098,7 +2251,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2">
+        <f>Sheet1!C64</f>
+        <v>0</v>
+      </c>
       <c r="D64" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2113,7 +2269,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2">
+        <f>Sheet1!C65</f>
+        <v>0</v>
+      </c>
       <c r="D65" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2128,7 +2287,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2">
+        <f>Sheet1!C66</f>
+        <v>0</v>
+      </c>
       <c r="D66" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2143,7 +2305,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2">
+        <f>Sheet1!C67</f>
+        <v>0</v>
+      </c>
       <c r="D67" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2158,7 +2323,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <f>Sheet1!C68</f>
+        <v>0</v>
+      </c>
       <c r="D68" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2173,7 +2341,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2">
+        <f>Sheet1!C69</f>
+        <v>0</v>
+      </c>
       <c r="D69" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2188,7 +2359,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2">
+        <f>Sheet1!C70</f>
+        <v>0</v>
+      </c>
       <c r="D70" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
@@ -2203,7 +2377,10 @@
         <f>Sheet1!B$62</f>
         <v>44472</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2">
+        <f>Sheet1!C71</f>
+        <v>0</v>
+      </c>
       <c r="D71" s="2">
         <f>Sheet1!$D$62</f>
         <v>0</v>
